--- a/files/DPA_Full_List.xlsx
+++ b/files/DPA_Full_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B4038C-65D1-4EEC-8ECF-8AA55B7EC5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BD0346-D340-4AFF-91FD-C528D3CC78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{F742D824-DA9D-4575-82D1-1C1918049C7A}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Attack Name</t>
-  </si>
-  <si>
     <t>DPA-A-APGD</t>
   </si>
   <si>
@@ -404,6 +401,9 @@
   </si>
   <si>
     <t>DPA-M-QeBB</t>
+  </si>
+  <si>
+    <t>DPA</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
   <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,551 +869,551 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
+      <c r="B45" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>43</v>
+      <c r="B46" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>44</v>
+      <c r="B47" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>45</v>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
+      <c r="B49" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>47</v>
+      <c r="B50" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>48</v>
+      <c r="B51" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>49</v>
+      <c r="B52" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>50</v>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>51</v>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>52</v>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>53</v>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>54</v>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>55</v>
+      <c r="B58" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>56</v>
+      <c r="B59" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>57</v>
+      <c r="B60" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>58</v>
+      <c r="B61" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>59</v>
+      <c r="B62" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
+      <c r="B63" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>61</v>
+      <c r="B64" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>62</v>
+      <c r="B65" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>63</v>
+      <c r="B66" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
+      <c r="B67" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>54</v>
+      <c r="B68" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>65</v>
+      <c r="B69" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1437,7 +1437,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1469,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1485,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1509,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,7 +1541,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1549,7 +1549,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1557,7 +1557,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1565,7 +1565,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1573,7 +1573,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,7 +1581,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1597,7 +1597,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1613,7 +1613,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1621,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1629,7 +1629,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1637,7 +1637,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1645,7 +1645,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1661,7 +1661,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1669,7 +1669,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1677,7 +1677,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1685,7 +1685,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1693,7 +1693,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1701,7 +1701,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1709,7 +1709,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1717,7 +1717,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1725,7 +1725,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1733,7 +1733,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1741,7 +1741,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,7 +1749,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1765,7 +1765,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1773,7 +1773,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1781,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1789,7 +1789,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/files/DPA_Full_List.xlsx
+++ b/files/DPA_Full_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9f047bd6f760809/Desktop/PHD Library/roadmap.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BD0346-D340-4AFF-91FD-C528D3CC78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F6BD0346-D340-4AFF-91FD-C528D3CC78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C407C20-0EED-4FB5-B978-DE93138C36D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{F742D824-DA9D-4575-82D1-1C1918049C7A}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15270" xr2:uid="{F742D824-DA9D-4575-82D1-1C1918049C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C55A2-F78E-4C7B-B601-4AA940F0104A}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1069,7 +1069,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1077,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1101,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1109,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1117,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1125,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1133,7 +1133,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1157,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,7 +1165,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1173,15 +1173,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1189,15 +1189,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1205,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1213,7 +1213,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1221,7 +1221,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1229,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1245,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1261,7 +1261,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1269,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1277,7 +1277,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1285,7 +1285,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1301,7 +1301,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1309,7 +1309,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1317,7 +1317,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1325,7 +1325,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1333,7 +1333,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1349,7 +1349,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1357,7 +1357,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1365,7 +1365,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1373,7 +1373,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1389,7 +1389,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1397,7 +1397,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1437,7 +1437,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1469,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1485,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1509,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,7 +1541,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1549,7 +1549,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1557,7 +1557,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1565,7 +1565,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1573,7 +1573,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1581,7 +1581,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1589,7 +1589,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1597,7 +1597,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1613,7 +1613,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1621,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1629,7 +1629,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1637,7 +1637,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1645,7 +1645,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1661,7 +1661,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1669,7 +1669,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1677,7 +1677,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1685,7 +1685,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1693,7 +1693,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1701,7 +1701,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1709,7 +1709,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1717,7 +1717,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1725,7 +1725,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1733,7 +1733,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1741,7 +1741,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,7 +1749,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1765,7 +1765,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1773,22 +1773,6 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3">
-        <v>114</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="3">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
         <v>109</v>
       </c>
     </row>
